--- a/Information/corr_data_price.xlsx
+++ b/Information/corr_data_price.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,10 +14,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>price_range</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clock_speed</t>
+  </si>
+  <si>
+    <t>dual_sim</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>four_g</t>
+  </si>
+  <si>
+    <t>int_memory</t>
+  </si>
+  <si>
+    <t>m_dep</t>
+  </si>
+  <si>
+    <t>mobile_wt</t>
+  </si>
+  <si>
+    <t>n_cores</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>px_height</t>
+  </si>
+  <si>
+    <t>px_width</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>sc_h</t>
+  </si>
+  <si>
+    <t>sc_w</t>
+  </si>
+  <si>
+    <t>talk_time</t>
+  </si>
+  <si>
+    <t>three_g</t>
+  </si>
+  <si>
+    <t>touch_screen</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,12 +92,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <color rgb="00F1F1F1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -130,32 +189,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -456,214 +515,172 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>price_range</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0205728540614187</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>clock_speed</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>-0.006605690881732028</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>dual_sim</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>0.01744447923722474</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>fc</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0.02199820777690432</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>four_g</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.01477171141723954</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>int_memory</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.04443495938898746</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>m_dep</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.0008530365050864314</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>mobile_wt</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>-0.03030217131438642</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>n_cores</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>0.004399274799457287</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>0.03359930021353944</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>px_height</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="11" t="n">
         <v>0.1488575550004219</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>px_width</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="12" t="n">
         <v>0.1658175017262551</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>0.9170457362649922</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>sc_h</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>0.02298607316742437</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>sc_w</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>0.03871127166448434</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>talk_time</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.02185887116237487</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>three_g</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>0.02361121688004487</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>touch_screen</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>-0.03041107189821792</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>wifi</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.01878481201278913</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>price_range</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="15" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>